--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -696,8 +696,8 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -709,10 +709,11 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -734,6 +735,13 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://medigree.net/eu/fhir/medigree/StructureDefinition/DefinedMed)
+</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1808,7 +1816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1818,7 +1826,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="60.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4083,28 +4091,26 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="AB20" s="2"/>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>216</v>
@@ -4139,15 +4145,17 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
@@ -4165,13 +4173,13 @@
         <v>229</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4221,7 +4229,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>86</v>
@@ -4236,24 +4244,24 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4261,7 +4269,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
@@ -4273,19 +4281,19 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4335,10 +4343,10 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4350,24 +4358,24 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4378,7 +4386,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4390,15 +4398,17 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -4447,13 +4457,13 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
@@ -4462,24 +4472,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4490,7 +4500,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4499,16 +4509,16 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4559,13 +4569,13 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
@@ -4574,24 +4584,24 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4614,13 +4624,13 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4671,7 +4681,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4686,24 +4696,24 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4723,16 +4733,16 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4783,7 +4793,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4798,16 +4808,16 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4815,7 +4825,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4835,20 +4845,18 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -4873,13 +4881,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4897,7 +4905,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4912,16 +4920,16 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4929,7 +4937,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4949,18 +4957,20 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -4985,13 +4995,13 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5009,7 +5019,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5024,16 +5034,16 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5041,7 +5051,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5052,7 +5062,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5064,17 +5074,15 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5099,13 +5107,13 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5123,13 +5131,13 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
@@ -5138,24 +5146,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5178,16 +5186,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5213,13 +5221,13 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>78</v>
@@ -5237,7 +5245,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5252,24 +5260,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5289,18 +5297,20 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>78</v>
@@ -5349,7 +5359,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5364,16 +5374,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5381,7 +5391,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5404,13 +5414,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5461,7 +5471,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5476,13 +5486,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5493,7 +5503,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5516,13 +5526,13 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5573,7 +5583,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5588,13 +5598,13 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5605,7 +5615,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5616,7 +5626,7 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5628,18 +5638,16 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>150</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5687,13 +5695,13 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -5702,13 +5710,13 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5719,7 +5727,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5739,21 +5747,21 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5777,13 +5785,13 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>78</v>
@@ -5801,7 +5809,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5816,13 +5824,13 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5833,7 +5841,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5844,7 +5852,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -5856,15 +5864,17 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>336</v>
+        <v>171</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -5889,13 +5899,13 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5913,13 +5923,13 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
@@ -5928,13 +5938,13 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5945,7 +5955,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5968,13 +5978,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6025,7 +6035,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6040,13 +6050,13 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6057,7 +6067,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6080,17 +6090,15 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6139,7 +6147,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6154,13 +6162,13 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6171,7 +6179,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6182,7 +6190,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6194,15 +6202,17 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6251,13 +6261,13 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
@@ -6266,13 +6276,13 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6283,7 +6293,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6306,13 +6316,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6363,7 +6373,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6375,16 +6385,16 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6395,18 +6405,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6418,17 +6428,15 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6477,19 +6485,19 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -6498,7 +6506,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6509,11 +6517,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>371</v>
+        <v>143</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6526,26 +6534,24 @@
         <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6593,7 +6599,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6614,7 +6620,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6625,41 +6631,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6707,19 +6715,19 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -6728,7 +6736,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6739,7 +6747,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6762,15 +6770,17 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6819,7 +6829,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6831,7 +6841,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -6840,7 +6850,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6851,18 +6861,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6874,17 +6884,15 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -6933,19 +6941,19 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -6954,7 +6962,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6965,11 +6973,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>371</v>
+        <v>143</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6982,26 +6990,24 @@
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7049,7 +7055,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7070,7 +7076,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7081,39 +7087,43 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7161,19 +7171,19 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7182,7 +7192,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>387</v>
+        <v>129</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7193,7 +7203,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7216,13 +7226,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7273,7 +7283,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7294,7 +7304,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7305,7 +7315,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7328,13 +7338,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7385,7 +7395,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7406,7 +7416,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7417,7 +7427,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7440,20 +7450,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7501,7 +7507,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7519,10 +7525,10 @@
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7533,7 +7539,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7556,18 +7562,20 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7615,7 +7623,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7633,21 +7641,21 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7670,15 +7678,17 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7727,7 +7737,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7745,21 +7755,21 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7782,17 +7792,15 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -7841,7 +7849,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7859,21 +7867,21 @@
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7896,15 +7904,17 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -7953,7 +7963,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7971,13 +7981,13 @@
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -7985,7 +7995,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8008,13 +8018,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8065,7 +8075,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8083,13 +8093,13 @@
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8097,7 +8107,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8120,13 +8130,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8177,7 +8187,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8189,16 +8199,16 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8209,18 +8219,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8232,17 +8242,15 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8291,19 +8299,19 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8312,7 +8320,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8323,11 +8331,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>371</v>
+        <v>143</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8340,26 +8348,24 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8428,7 +8434,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8439,41 +8445,43 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>438</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>439</v>
+        <v>374</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8497,13 +8505,13 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>78</v>
@@ -8521,39 +8529,39 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>444</v>
+        <v>129</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8561,7 +8569,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
@@ -8576,15 +8584,17 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>171</v>
+        <v>440</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8612,10 +8622,10 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -8633,10 +8643,10 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>86</v>
@@ -8651,21 +8661,21 @@
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8688,13 +8698,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>455</v>
+        <v>171</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8721,13 +8731,13 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8745,7 +8755,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8760,35 +8770,35 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -8800,17 +8810,15 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8859,13 +8867,13 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -8874,13 +8882,13 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8891,11 +8899,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8914,16 +8922,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8973,7 +8981,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8988,18 +8996,132 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/IntMedicationRequest</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/IntMedicationRequest</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -446,7 +446,7 @@
     <t>relatedMedication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/relatedMedication}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/relatedMedication}
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://medigree.net/eu/fhir/medigree/StructureDefinition/DefinedMed)
+    <t xml:space="preserve">Reference(http://medigree.net/eu/fhir/mpd/StructureDefinition/DefinedMed)
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -696,8 +696,8 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
+    <t>CodeableConcept
+Reference(Medication)</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -707,13 +707,16 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying substance or product that can be ordered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1160,6 +1163,10 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1825,46 +1832,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.28515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="161.5859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="128.4140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="128.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4091,26 +4098,26 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>216</v>
@@ -4128,19 +4135,19 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
@@ -4148,7 +4155,7 @@
         <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>78</v>
@@ -4170,7 +4177,7 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>218</v>
@@ -4244,24 +4251,24 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4284,16 +4291,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4343,7 +4350,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>86</v>
@@ -4358,24 +4365,24 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4398,16 +4405,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4457,7 +4464,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4472,24 +4479,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4512,13 +4519,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4569,7 +4576,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4584,16 +4591,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4601,7 +4608,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4624,13 +4631,13 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4681,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4696,24 +4703,24 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4736,13 +4743,13 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4793,7 +4800,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4808,16 +4815,16 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4825,7 +4832,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4848,13 +4855,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4905,7 +4912,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4920,16 +4927,16 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4937,7 +4944,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4963,13 +4970,13 @@
         <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4998,10 +5005,10 @@
         <v>175</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5019,7 +5026,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5034,13 +5041,13 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5051,7 +5058,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5074,13 +5081,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5131,7 +5138,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5152,10 +5159,10 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5163,7 +5170,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5189,13 +5196,13 @@
         <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5224,10 +5231,10 @@
         <v>175</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>78</v>
@@ -5245,7 +5252,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5260,24 +5267,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5300,16 +5307,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5359,7 +5366,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5374,16 +5381,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5391,7 +5398,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5414,13 +5421,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5471,7 +5478,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5486,13 +5493,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5503,7 +5510,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5529,10 +5536,10 @@
         <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5583,7 +5590,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5604,7 +5611,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5615,7 +5622,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5638,13 +5645,13 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5695,7 +5702,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5710,13 +5717,13 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5727,7 +5734,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5753,14 +5760,14 @@
         <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5809,7 +5816,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5824,13 +5831,13 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5841,7 +5848,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5867,13 +5874,13 @@
         <v>171</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5902,10 +5909,10 @@
         <v>175</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5923,7 +5930,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5944,7 +5951,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5955,7 +5962,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5978,13 +5985,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6035,7 +6042,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6050,13 +6057,13 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6067,7 +6074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6090,13 +6097,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6147,7 +6154,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6162,13 +6169,13 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6179,7 +6186,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6202,16 +6209,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6261,7 +6268,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6276,13 +6283,13 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6293,7 +6300,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6316,13 +6323,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6373,7 +6380,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6391,10 +6398,10 @@
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6412,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6428,13 +6435,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6485,7 +6492,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6506,7 +6513,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6517,7 +6524,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6543,10 +6550,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>146</v>
@@ -6599,7 +6606,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6620,7 +6627,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6631,11 +6638,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6657,10 +6664,10 @@
         <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>146</v>
@@ -6715,7 +6722,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6747,7 +6754,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6770,16 +6777,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6829,7 +6836,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6850,7 +6857,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6861,7 +6868,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6884,13 +6891,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6941,7 +6948,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6962,7 +6969,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6973,7 +6980,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6999,10 +7006,10 @@
         <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>146</v>
@@ -7055,7 +7062,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7076,7 +7083,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7087,11 +7094,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7113,10 +7120,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>146</v>
@@ -7171,7 +7178,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7203,7 +7210,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7226,13 +7233,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7283,7 +7290,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7304,7 +7311,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7315,7 +7322,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7338,13 +7345,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7395,7 +7402,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7416,7 +7423,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7427,7 +7434,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7450,13 +7457,13 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7507,7 +7514,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7528,7 +7535,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7539,7 +7546,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7562,19 +7569,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -7623,7 +7630,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7641,10 +7648,10 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7655,7 +7662,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7678,16 +7685,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7737,7 +7744,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7755,21 +7762,21 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7792,13 +7799,13 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7849,7 +7856,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7867,21 +7874,21 @@
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7904,16 +7911,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7963,7 +7970,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7981,10 +7988,10 @@
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7995,7 +8002,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8018,13 +8025,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8075,7 +8082,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8096,10 +8103,10 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8107,7 +8114,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8130,13 +8137,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8187,7 +8194,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8205,10 +8212,10 @@
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8219,7 +8226,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8242,13 +8249,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8299,7 +8306,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8320,7 +8327,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8331,7 +8338,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8357,10 +8364,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>146</v>
@@ -8413,7 +8420,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8434,7 +8441,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8445,11 +8452,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8471,10 +8478,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>146</v>
@@ -8529,7 +8536,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8561,7 +8568,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8584,16 +8591,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8622,10 +8629,10 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -8643,7 +8650,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>86</v>
@@ -8661,21 +8668,21 @@
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8701,10 +8708,10 @@
         <v>171</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8734,10 +8741,10 @@
         <v>175</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8755,7 +8762,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8773,21 +8780,21 @@
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8810,13 +8817,13 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8867,7 +8874,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8882,13 +8889,13 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8899,11 +8906,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8922,16 +8929,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8981,7 +8988,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9002,7 +9009,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9013,7 +9020,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9036,16 +9043,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9095,7 +9102,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9110,13 +9117,13 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,10 +257,6 @@
   </si>
   <si>
     <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2090,16 +2086,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2110,7 +2106,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2121,28 +2117,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2192,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2224,7 +2220,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2235,25 +2231,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2304,19 +2300,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2336,7 +2332,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2347,28 +2343,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2418,19 +2414,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2450,7 +2446,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2461,7 +2457,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2473,16 +2469,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2508,43 +2504,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2564,18 +2560,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2587,16 +2583,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2646,28 +2642,28 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2678,11 +2674,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2701,16 +2697,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2760,7 +2756,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2781,7 +2777,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2792,7 +2788,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2815,13 +2811,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2860,17 +2856,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2882,7 +2878,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2902,10 +2898,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -2915,7 +2911,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -2927,13 +2923,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2984,7 +2980,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2993,10 +2989,10 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3016,11 +3012,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3033,25 +3029,25 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3100,7 +3096,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3112,7 +3108,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3121,7 +3117,7 @@
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
@@ -3132,7 +3128,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3155,16 +3151,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3214,7 +3210,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3226,27 +3222,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3254,31 +3250,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="I13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3304,55 +3300,55 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3360,7 +3356,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3371,7 +3367,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3383,16 +3379,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3418,52 +3414,52 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3474,7 +3470,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3482,31 +3478,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="I15" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3532,55 +3528,55 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3588,7 +3584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3611,16 +3607,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3646,14 +3642,14 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3670,7 +3666,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3682,19 +3678,19 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3702,7 +3698,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3713,25 +3709,25 @@
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3758,55 +3754,55 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3814,7 +3810,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3825,28 +3821,28 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3896,19 +3892,19 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -3917,7 +3913,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3928,7 +3924,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3939,25 +3935,25 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4008,19 +4004,19 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4029,7 +4025,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4040,7 +4036,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4048,31 +4044,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4098,64 +4094,64 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>78</v>
@@ -4165,28 +4161,28 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4236,39 +4232,39 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4276,31 +4272,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4350,39 +4346,39 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4393,7 +4389,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4405,16 +4401,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4464,39 +4460,39 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4519,13 +4515,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4576,7 +4572,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4588,19 +4584,19 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4608,7 +4604,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4619,25 +4615,25 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4688,39 +4684,39 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4731,25 +4727,25 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4800,31 +4796,31 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4832,7 +4828,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4843,7 +4839,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -4855,13 +4851,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4912,31 +4908,31 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4944,7 +4940,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4955,28 +4951,28 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5002,52 +4998,52 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5058,7 +5054,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5069,7 +5065,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5081,13 +5077,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5138,19 +5134,19 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5159,10 +5155,10 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5170,7 +5166,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5193,16 +5189,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5228,14 +5224,14 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5252,7 +5248,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5264,27 +5260,27 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5307,16 +5303,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5366,7 +5362,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5378,19 +5374,19 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5398,7 +5394,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5418,16 +5414,16 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5478,7 +5474,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5490,16 +5486,16 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5510,7 +5506,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5530,16 +5526,16 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5590,7 +5586,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5602,7 +5598,7 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -5611,7 +5607,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5622,7 +5618,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5642,16 +5638,16 @@
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5702,7 +5698,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5714,16 +5710,16 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5734,7 +5730,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5745,29 +5741,29 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5816,28 +5812,28 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5848,7 +5844,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5859,7 +5855,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -5871,16 +5867,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5906,52 +5902,52 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5962,7 +5958,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5985,13 +5981,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6042,7 +6038,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6054,16 +6050,16 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6074,7 +6070,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6097,13 +6093,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6154,7 +6150,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6166,16 +6162,16 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6186,7 +6182,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6209,16 +6205,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6268,7 +6264,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6280,16 +6276,16 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6300,7 +6296,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6311,7 +6307,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6323,13 +6319,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6380,28 +6376,28 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6412,7 +6408,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6423,7 +6419,7 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6435,13 +6431,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6492,28 +6488,28 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6524,11 +6520,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6547,16 +6543,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6606,7 +6602,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6618,7 +6614,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -6627,7 +6623,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6638,11 +6634,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6655,25 +6651,25 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -6722,7 +6718,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6734,7 +6730,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -6743,7 +6739,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6754,7 +6750,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6765,7 +6761,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6777,16 +6773,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6836,19 +6832,19 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -6857,7 +6853,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6868,7 +6864,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6879,7 +6875,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6891,13 +6887,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6948,28 +6944,28 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6980,11 +6976,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7003,16 +6999,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7062,7 +7058,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7074,7 +7070,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7083,7 +7079,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7094,11 +7090,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7111,25 +7107,25 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7178,7 +7174,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7190,7 +7186,7 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7199,7 +7195,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7210,7 +7206,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7221,7 +7217,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7233,13 +7229,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7290,19 +7286,19 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7311,7 +7307,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7322,7 +7318,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7333,7 +7329,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7345,13 +7341,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7402,19 +7398,19 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7423,7 +7419,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7434,7 +7430,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7445,7 +7441,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7457,13 +7453,13 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7514,19 +7510,19 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -7535,7 +7531,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7546,7 +7542,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7557,7 +7553,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7569,19 +7565,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -7630,28 +7626,28 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7662,7 +7658,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7673,7 +7669,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7685,16 +7681,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7744,39 +7740,39 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7787,7 +7783,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -7799,13 +7795,13 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7856,39 +7852,39 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7899,7 +7895,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -7911,16 +7907,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7970,28 +7966,28 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8002,7 +7998,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8013,7 +8009,7 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8025,13 +8021,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8082,19 +8078,19 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8103,10 +8099,10 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8114,7 +8110,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8125,7 +8121,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8137,13 +8133,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8194,28 +8190,28 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8226,7 +8222,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8237,7 +8233,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8249,13 +8245,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8306,28 +8302,28 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8338,11 +8334,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8361,16 +8357,16 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8420,7 +8416,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8432,7 +8428,7 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -8441,7 +8437,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8452,11 +8448,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8469,25 +8465,25 @@
         <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M59" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8536,7 +8532,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8548,7 +8544,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -8557,7 +8553,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8568,7 +8564,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8576,10 +8572,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -8591,16 +8587,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8626,63 +8622,63 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8693,7 +8689,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -8705,13 +8701,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8738,63 +8734,63 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8805,7 +8801,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -8817,13 +8813,13 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8874,28 +8870,28 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8906,11 +8902,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8929,16 +8925,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8988,7 +8984,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9000,7 +8996,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9009,7 +9005,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9020,7 +9016,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9043,16 +9039,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9102,7 +9098,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9114,16 +9110,16 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IntMedicationRequest.xlsx
+++ b/branches/master/StructureDefinition-IntMedicationRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
